--- a/ConversionAndRetrieval/trainings_data.xlsx
+++ b/ConversionAndRetrieval/trainings_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>timingOfTraining</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>createdAt</t>
         </is>
       </c>
@@ -488,42 +493,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Song sea may per play her.</t>
+          <t>Green study feel agree parent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emp_1</t>
+          <t>Emp_11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brian Spencer</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>34</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-01-27 13:38:45</t>
+          <t>2024-12-10 00:00:00 - 2024-12-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-01-12 09:14:21</t>
         </is>
       </c>
     </row>
@@ -535,42 +543,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Station chance glass operation economic task almost feeling.</t>
+          <t>Amount hard conference among happy create.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Emp_2</t>
+          <t>Emp_176</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logan Benjamin</t>
+          <t>Bruce</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
+          <t>2023-10-08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-01-30 02:17:34</t>
+          <t>2023-10-08 00:00:00 - 2023-10-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-04-06 07:15:34</t>
         </is>
       </c>
     </row>
@@ -582,42 +593,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lay trouble lawyer human career.</t>
+          <t>Organization memory television brother need team south course.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emp_3</t>
+          <t>Emp_107</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kevin Anderson</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-02-09 04:41:46</t>
+          <t>2024-12-15 00:00:00 - 2024-12-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-03-19 02:08:15</t>
         </is>
       </c>
     </row>
@@ -629,42 +643,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current likely upon join election challenge.</t>
+          <t>With social unit account too.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emp_4</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Regina Esparza</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-01-13 01:18:51</t>
+          <t>2023-06-14 00:00:00 - 2023-06-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-02-19 03:01:05</t>
         </is>
       </c>
     </row>
@@ -676,42 +693,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Have thus response business live.</t>
+          <t>Develop fish raise.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emp_5</t>
+          <t>Emp_137</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarah Porter</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-01-02 13:50:55</t>
+          <t>2023-09-15 00:00:00 - 2023-09-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-01-31 05:42:07</t>
         </is>
       </c>
     </row>
@@ -723,42 +743,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Radio difficult specific management.</t>
+          <t>Often I share road good will certainly.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Emp_6</t>
+          <t>Emp_21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Michael Smith</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-01-20 02:09:29</t>
+          <t>2023-06-22 00:00:00 - 2023-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-01-31 19:48:56</t>
         </is>
       </c>
     </row>
@@ -770,42 +793,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Long state well.</t>
+          <t>War law less ago single pass.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Emp_7</t>
+          <t>Emp_3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jason Jenkins</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>27</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-02-10 18:31:19</t>
+          <t>2023-12-20 00:00:00 - 2023-12-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-02-27 00:47:46</t>
         </is>
       </c>
     </row>
@@ -817,42 +843,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Serve myself few worker.</t>
+          <t>Tax chance there traditional entire.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Emp_8</t>
+          <t>Emp_144</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Christopher Black</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020-12-24</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-02-02 16:24:51</t>
+          <t>2024-04-08 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-03-09 15:18:24</t>
         </is>
       </c>
     </row>
@@ -864,42 +893,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Even soon effect mind dream long.</t>
+          <t>Catch herself and person different necessary particular.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emp_9</t>
+          <t>Emp_71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Charles Farrell</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-01-12 06:18:11</t>
+          <t>2023-09-11 00:00:00 - 2023-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-01-31 16:24:08</t>
         </is>
       </c>
     </row>
@@ -911,42 +943,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Range stuff despite live interview then firm my.</t>
+          <t>Appear to certain wind student.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Emp_10</t>
+          <t>Emp_79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Michael Marquez</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-03-16 06:16:32</t>
+          <t>2024-11-01 00:00:00 - 2024-11-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-03-26 22:27:53</t>
         </is>
       </c>
     </row>
@@ -958,42 +993,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ago player his course.</t>
+          <t>Network determine between lose food.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Emp_11</t>
+          <t>Emp_114</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Thomas Baker</t>
+          <t>Kathleen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-03-01 20:06:34</t>
+          <t>2023-07-27 00:00:00 - 2023-08-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-03-14 16:08:17</t>
         </is>
       </c>
     </row>
@@ -1010,37 +1048,40 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Great close laugh actually opportunity education.</t>
+          <t>Success form church reason wonder order.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emp_12</t>
+          <t>Emp_19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beverly Craig</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-03-17 19:50:14</t>
+          <t>2024-02-28 00:00:00 - 2024-03-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024-03-05 00:52:12</t>
         </is>
       </c>
     </row>
@@ -1052,42 +1093,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Attention herself with difficult upon computer.</t>
+          <t>Use off deal which ask.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Emp_13</t>
+          <t>Emp_45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amy Moran</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-03-18 22:29:53</t>
+          <t>2023-11-07 00:00:00 - 2023-11-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024-01-30 14:14:53</t>
         </is>
       </c>
     </row>
@@ -1099,42 +1143,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Art bit time from present visit according.</t>
+          <t>Include rather close plant.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Emp_14</t>
+          <t>Emp_114</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Laura Austin</t>
+          <t>Sally</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-03-17 16:06:02</t>
+          <t>2024-01-26 00:00:00 - 2024-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024-02-02 17:34:40</t>
         </is>
       </c>
     </row>
@@ -1146,42 +1193,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Behavior common population information.</t>
+          <t>Phone sound half conference great interesting.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Emp_15</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Melissa Bryant</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-02-20 06:11:11</t>
+          <t>2024-07-24 00:00:00 - 2024-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2024-03-04 14:38:17</t>
         </is>
       </c>
     </row>
@@ -1193,42 +1243,45 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Attorney majority during feel coach turn.</t>
+          <t>Really memory lawyer specific.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emp_16</t>
+          <t>Emp_75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kyle King</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-03-27 00:59:25</t>
+          <t>2023-09-18 00:00:00 - 2023-09-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024-01-08 08:59:44</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1293,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Heavy either within decide become.</t>
+          <t>Subject morning PM garden.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Emp_17</t>
+          <t>Emp_113</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>David Torres</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-02-20 18:55:17</t>
+          <t>2024-04-19 00:00:00 - 2024-04-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:15:07</t>
         </is>
       </c>
     </row>
@@ -1287,42 +1343,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Various performance alone behavior leg page.</t>
+          <t>Art claim work prevent.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Emp_18</t>
+          <t>Emp_88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Marie Acosta</t>
+          <t>Rebekah</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-02-16 00:35:39</t>
+          <t>2024-05-31 00:00:00 - 2024-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024-01-12 06:22:06</t>
         </is>
       </c>
     </row>
@@ -1334,42 +1393,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Political last open science game yet show theory.</t>
+          <t>Foot recently upon property light clear young.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Emp_19</t>
+          <t>Emp_31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Frank Rogers</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>29</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-01-22 14:36:59</t>
+          <t>2024-09-27 00:00:00 - 2024-10-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-03-01 22:53:26</t>
         </is>
       </c>
     </row>
@@ -1381,42 +1443,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Collection various throw.</t>
+          <t>Training want care maintain.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Emp_20</t>
+          <t>Emp_77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>David Green</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>32</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-03-29 11:51:41</t>
+          <t>2024-10-01 00:00:00 - 2024-10-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-03-16 12:37:40</t>
         </is>
       </c>
     </row>
@@ -1428,42 +1493,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Particularly whole modern fear along realize organization.</t>
+          <t>Avoid sign kid tough important make partner force.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Emp_21</t>
+          <t>Emp_4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Spencer Lee</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>16</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-03-20 12:20:12</t>
+          <t>2023-12-06 00:00:00 - 2023-12-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-03-06 17:27:37</t>
         </is>
       </c>
     </row>
@@ -1475,42 +1543,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Attorney reveal have according clearly more.</t>
+          <t>Heart sometimes conference church hit.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Emp_22</t>
+          <t>Emp_88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Victoria Rojas</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>29</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-03-05 20:10:12</t>
+          <t>2024-02-15 00:00:00 - 2024-02-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-02-23 20:42:22</t>
         </is>
       </c>
     </row>
@@ -1522,42 +1593,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lawyer space attorney race know.</t>
+          <t>Image though give stock dog onto.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emp_23</t>
+          <t>Emp_109</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Megan Valdez</t>
+          <t>Brandy</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2024-06-02</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-02-05 17:56:59</t>
+          <t>2024-05-27 00:00:00 - 2024-06-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-01-16 18:34:18</t>
         </is>
       </c>
     </row>
@@ -1569,42 +1643,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lot cause second want.</t>
+          <t>Them onto movement writer everyone above tax matter.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Emp_24</t>
+          <t>Emp_104</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Amanda Webb</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-01-27 19:00:29</t>
+          <t>2023-09-29 00:00:00 - 2023-10-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-01-25 05:35:06</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1693,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Poor either remember power rate director.</t>
+          <t>Begin remember third right than.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Emp_25</t>
+          <t>Emp_6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nicole Martin</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>14</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-02-17 21:27:23</t>
+          <t>2023-07-23 00:00:00 - 2023-08-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-04-01 08:25:21</t>
         </is>
       </c>
     </row>
@@ -1668,37 +1748,40 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Reach doctor budget maintain significant.</t>
+          <t>Travel maintain that few.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Emp_26</t>
+          <t>Emp_178</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stephen Hall</t>
+          <t>Darren</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>37</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-03-23 10:24:02</t>
+          <t>2023-09-14 00:00:00 - 2023-09-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-01-02 08:13:13</t>
         </is>
       </c>
     </row>
@@ -1710,42 +1793,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Street realize close.</t>
+          <t>Oil star four bank cultural.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emp_27</t>
+          <t>Emp_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jaclyn Williams</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2020-12-08</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>18</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-01-10 10:46:38</t>
+          <t>2024-10-01 00:00:00 - 2024-10-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-02-22 20:54:15</t>
         </is>
       </c>
     </row>
@@ -1757,42 +1843,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hundred artist newspaper above huge agent.</t>
+          <t>Bed including tax.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emp_28</t>
+          <t>Emp_16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kathleen Willis</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>32</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-01-31 19:49:01</t>
+          <t>2023-09-05 00:00:00 - 2023-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024-04-02 05:54:45</t>
         </is>
       </c>
     </row>
@@ -1804,42 +1893,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Second television loss friend.</t>
+          <t>Shake join ask difficult sense.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Emp_29</t>
+          <t>Emp_128</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Frank Briggs</t>
+          <t>Brent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-02-05 20:13:59</t>
+          <t>2024-06-14 00:00:00 - 2024-06-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-01-27 13:29:01</t>
         </is>
       </c>
     </row>
@@ -1851,42 +1943,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Different recognize score million plan pretty wrong.</t>
+          <t>Recently left conference brother affect smile.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Emp_30</t>
+          <t>Emp_92</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Taylor Villa</t>
+          <t>James</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>23</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-03-04 00:04:45</t>
+          <t>2023-10-14 00:00:00 - 2023-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-02-20 02:46:02</t>
         </is>
       </c>
     </row>
@@ -1898,42 +1993,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Modern everything big move.</t>
+          <t>Marriage standard when.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emp_31</t>
+          <t>Emp_61</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ashley Thomas</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>31</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-04-02 23:22:08</t>
+          <t>2024-04-04 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-03-04 10:00:48</t>
         </is>
       </c>
     </row>
@@ -1945,42 +2043,45 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Foot response great cold.</t>
+          <t>Why such involve indicate development specific.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Emp_32</t>
+          <t>Emp_15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Julie Gregory MD</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>36</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-03-01 07:42:26</t>
+          <t>2023-12-18 00:00:00 - 2023-12-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2024-03-27 10:13:57</t>
         </is>
       </c>
     </row>
@@ -1992,42 +2093,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Suddenly usually himself some third.</t>
+          <t>Into fact military help girl tough use many.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emp_33</t>
+          <t>Emp_120</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brandi Graham</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>26</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-03-01 07:41:13</t>
+          <t>2024-08-03 00:00:00 - 2024-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024-01-05 09:44:37</t>
         </is>
       </c>
     </row>
@@ -2039,42 +2143,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Specific lose particular build young.</t>
+          <t>Without wind measure decision.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emp_34</t>
+          <t>Emp_8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>James Collins</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023-10-14</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-03-08 05:57:07</t>
+          <t>2023-08-03 00:00:00 - 2023-08-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024-03-13 07:46:09</t>
         </is>
       </c>
     </row>
@@ -2086,42 +2193,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Would task heavy quite window actually.</t>
+          <t>Rock chair watch impact firm today.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Emp_35</t>
+          <t>Emp_66</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>John Garcia</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-03-24 14:42:00</t>
+          <t>2023-11-15 00:00:00 - 2023-11-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-02-05 06:11:50</t>
         </is>
       </c>
     </row>
@@ -2133,42 +2243,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Good down mind education certain end his.</t>
+          <t>Mrs project star.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emp_36</t>
+          <t>Emp_168</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kevin Strickland</t>
+          <t>Brendan</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>31</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-02-28 01:05:43</t>
+          <t>2023-09-17 00:00:00 - 2023-09-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-03-28 23:37:29</t>
         </is>
       </c>
     </row>
@@ -2180,42 +2293,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>End center approach.</t>
+          <t>Concern goal test difficult.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emp_37</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Andrea Gilbert</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>2023-06-10</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-01-07 23:00:34</t>
+          <t>2023-06-04 00:00:00 - 2023-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2024-04-07 13:54:57</t>
         </is>
       </c>
     </row>
@@ -2227,42 +2343,45 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Series spend let democratic group.</t>
+          <t>Last adult couple job discuss job professional.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Emp_38</t>
+          <t>Emp_151</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gabriella Key</t>
+          <t>Leslie</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-03-21 19:38:07</t>
+          <t>2024-04-09 00:00:00 - 2024-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2024-02-03 12:14:05</t>
         </is>
       </c>
     </row>
@@ -2274,42 +2393,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Office Mr beyond source some fast wonder.</t>
+          <t>Any meet husband east position.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Emp_39</t>
+          <t>Emp_20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Phillip Mendoza</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-02-04 12:49:30</t>
+          <t>2024-04-06 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2024-03-05 21:49:28</t>
         </is>
       </c>
     </row>
@@ -2321,42 +2443,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Current lot win leg rule.</t>
+          <t>Middle before his walk.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Emp_40</t>
+          <t>Emp_23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Maxwell Lowe</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>21</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-02-23 17:15:15</t>
+          <t>2024-07-13 00:00:00 - 2024-07-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2024-03-25 02:13:25</t>
         </is>
       </c>
     </row>
@@ -2373,37 +2498,40 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mission outside by also war.</t>
+          <t>Account outside must lot discussion bring whom bed.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emp_41</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kevin Campbell</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2024-06-15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>38</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-02-28 19:01:04</t>
+          <t>2024-06-15 00:00:00 - 2024-06-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-03-09 03:36:37</t>
         </is>
       </c>
     </row>
@@ -2415,42 +2543,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Well teacher until memory knowledge.</t>
+          <t>Miss house couple population majority executive.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Emp_42</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Heidi Gallegos</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>16</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-01-15 22:01:35</t>
+          <t>2023-09-08 00:00:00 - 2023-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2024-01-30 00:01:27</t>
         </is>
       </c>
     </row>
@@ -2462,42 +2593,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Add including husband choice kid.</t>
+          <t>Far thus about administration.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Emp_43</t>
+          <t>Emp_195</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Karen Mendoza</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>13</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-03-29 07:18:42</t>
+          <t>2023-09-11 00:00:00 - 2023-09-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-01-25 12:29:57</t>
         </is>
       </c>
     </row>
@@ -2509,42 +2643,45 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Message look recent exist hair nearly.</t>
+          <t>Shoulder open source together religious information worker discussion.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Emp_44</t>
+          <t>Emp_8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Christina Robertson</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>18</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-02-14 11:20:48</t>
+          <t>2024-10-30 00:00:00 - 2024-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024-01-20 15:24:06</t>
         </is>
       </c>
     </row>
@@ -2556,42 +2693,45 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Grow avoid speech.</t>
+          <t>Name us thousand current.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Emp_45</t>
+          <t>Emp_164</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>James Dougherty</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2020-12-03</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>31</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-01-08 19:37:39</t>
+          <t>2024-03-22 00:00:00 - 2024-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024-02-16 10:30:01</t>
         </is>
       </c>
     </row>
@@ -2603,42 +2743,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Only admit get energy process successful forget.</t>
+          <t>Bit me instead administration.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Emp_46</t>
+          <t>Emp_92</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Julie Nelson</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>32</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-01-07 06:43:34</t>
+          <t>2023-12-29 00:00:00 - 2024-01-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2024-02-16 06:24:08</t>
         </is>
       </c>
     </row>
@@ -2650,42 +2793,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ever and sport who.</t>
+          <t>Visit despite next phone difficult respond.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Emp_47</t>
+          <t>Emp_50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jeffrey Bruce</t>
+          <t>Derek</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-10-15</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-02-17 12:12:13</t>
+          <t>2023-09-26 00:00:00 - 2023-10-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024-01-04 04:19:29</t>
         </is>
       </c>
     </row>
@@ -2702,37 +2848,40 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Body line voice try ten deep.</t>
+          <t>Assume leg style.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Emp_48</t>
+          <t>Emp_55</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jose Hill</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-05-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>24</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-03-09 20:53:03</t>
+          <t>2024-10-24 00:00:00 - 2024-11-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2024-03-05 08:47:33</t>
         </is>
       </c>
     </row>
@@ -2744,42 +2893,45 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>I star station finish.</t>
+          <t>Thousand bit of dinner.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Emp_49</t>
+          <t>Emp_138</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Susan Davila</t>
+          <t>Phillip</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-02-10 07:00:58</t>
+          <t>2024-08-15 00:00:00 - 2024-08-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2024-03-21 11:46:08</t>
         </is>
       </c>
     </row>
@@ -2796,37 +2948,40 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Firm star enough tough feeling member.</t>
+          <t>Site when write least final free short.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Emp_50</t>
+          <t>Emp_22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elizabeth Mullins</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>32</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-03-19 12:08:43</t>
+          <t>2024-04-05 00:00:00 - 2024-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2024-01-03 11:18:53</t>
         </is>
       </c>
     </row>
@@ -2838,42 +2993,45 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Put arm ok window church fear forward.</t>
+          <t>Laugh position minute somebody remain present various born.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Emp_51</t>
+          <t>Emp_197</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jade Young</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>20</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-03-08 15:56:34</t>
+          <t>2023-09-08 00:00:00 - 2023-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2024-01-02 16:25:23</t>
         </is>
       </c>
     </row>
@@ -2885,42 +3043,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Deep goal type major serious relationship discuss.</t>
+          <t>Include light admit water raise ability majority light.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Emp_52</t>
+          <t>Emp_139</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Timothy Lopez</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>23</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-03-02 14:14:17</t>
+          <t>2023-08-11 00:00:00 - 2023-08-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2024-01-12 19:17:24</t>
         </is>
       </c>
     </row>
@@ -2932,42 +3093,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Source reality onto plant vote.</t>
+          <t>Soon response blood partner until develop.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Emp_53</t>
+          <t>Emp_10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Vickie Sanchez</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-03-25 23:17:46</t>
+          <t>2024-09-10 00:00:00 - 2024-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2024-02-11 05:14:05</t>
         </is>
       </c>
     </row>
@@ -2979,42 +3143,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Just war woman culture ever.</t>
+          <t>Foreign low day huge yourself respond lawyer.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Emp_54</t>
+          <t>Emp_50</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Daniel Stephens</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>25</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-03-08 17:32:20</t>
+          <t>2024-07-03 00:00:00 - 2024-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2024-02-04 09:03:59</t>
         </is>
       </c>
     </row>
@@ -3026,42 +3193,45 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Speech others strategy far free training however.</t>
+          <t>Turn seat lawyer.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Emp_55</t>
+          <t>Emp_133</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Alexandra Hill</t>
+          <t>Dakota</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-03-17 12:57:09</t>
+          <t>2024-11-11 00:00:00 - 2024-11-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2024-03-18 15:35:56</t>
         </is>
       </c>
     </row>
@@ -3073,42 +3243,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Database Management with MongoDB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>View camera and decision.</t>
+          <t>End sister career minute member.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Emp_56</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gabriel Garcia</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023-04-22</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2023-04-27</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-01-14 08:53:22</t>
+          <t>2024-05-07 00:00:00 - 2024-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:12:47</t>
         </is>
       </c>
     </row>
@@ -3120,42 +3293,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Parent in activity.</t>
+          <t>Board east again international arm plan by.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Emp_57</t>
+          <t>Emp_112</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Zachary Carter</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>27</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-02-08 01:37:30</t>
+          <t>2024-01-16 00:00:00 - 2024-01-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2024-03-20 07:53:45</t>
         </is>
       </c>
     </row>
@@ -3172,37 +3348,40 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Husband main happy professor writer item.</t>
+          <t>Laugh support her article one feel.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emp_58</t>
+          <t>Emp_162</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Henry Blackburn</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-02-02 22:56:18</t>
+          <t>2024-12-27 00:00:00 - 2025-01-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2024-01-27 05:09:48</t>
         </is>
       </c>
     </row>
@@ -3214,42 +3393,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Poor yourself serve wide herself close.</t>
+          <t>With real participant fear.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Emp_59</t>
+          <t>Emp_169</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jenny Chen</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2023-12-09</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>24</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-01-12 00:44:52</t>
+          <t>2023-12-09 00:00:00 - 2023-12-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2024-03-18 20:37:13</t>
         </is>
       </c>
     </row>
@@ -3261,42 +3443,45 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Prepare choice scene recent cup teacher.</t>
+          <t>Establish whole bank return society whom.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emp_60</t>
+          <t>Emp_136</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Dr. Linda Cantu</t>
+          <t>Deanna</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-02-12 17:15:05</t>
+          <t>2024-04-26 00:00:00 - 2024-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2024-01-23 22:04:01</t>
         </is>
       </c>
     </row>
@@ -3308,42 +3493,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Court someone you yet debate.</t>
+          <t>Pick approach area however available.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Emp_61</t>
+          <t>Emp_174</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gregory Gordon</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-01-31 02:13:47</t>
+          <t>2024-02-22 00:00:00 - 2024-03-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2024-03-09 12:19:53</t>
         </is>
       </c>
     </row>
@@ -3355,42 +3543,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sometimes in method.</t>
+          <t>Wait painting treat stop relate.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Emp_62</t>
+          <t>Emp_89</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rebecca Reed</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+          <t>2024-12-26</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>27</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-01-28 12:36:08</t>
+          <t>2024-12-19 00:00:00 - 2024-12-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2024-03-23 07:32:24</t>
         </is>
       </c>
     </row>
@@ -3402,42 +3593,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bank special try heart act individual decision.</t>
+          <t>Firm join hear three many summer wear.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Emp_63</t>
+          <t>Emp_24</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lori Diaz</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2024-02-14 20:11:47</t>
+          <t>2024-04-13 00:00:00 - 2024-04-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2024-03-28 21:53:30</t>
         </is>
       </c>
     </row>
@@ -3449,42 +3643,45 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Talk behind others as.</t>
+          <t>Economy wrong sell tend less provide he team.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Emp_64</t>
+          <t>Emp_49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Patricia Keller</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>16</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2024-01-08 01:08:50</t>
+          <t>2024-03-07 00:00:00 - 2024-03-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2024-03-25 10:08:54</t>
         </is>
       </c>
     </row>
@@ -3496,42 +3693,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Find realize former rock Mrs recognize friend.</t>
+          <t>Close use fall glass either offer least yard.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Emp_65</t>
+          <t>Emp_191</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Amanda Johnson</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-11-25</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2021-11-30</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>2024-01-27</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>26</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2024-04-01 00:31:09</t>
+          <t>2024-01-19 00:00:00 - 2024-01-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2024-03-30 09:27:03</t>
         </is>
       </c>
     </row>
@@ -3543,42 +3743,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Finally want effect thought page.</t>
+          <t>Argue surface cut region.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Emp_66</t>
+          <t>Emp_182</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Tara Hall</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>19</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2024-04-01 11:47:50</t>
+          <t>2024-10-17 00:00:00 - 2024-10-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2024-01-18 17:57:50</t>
         </is>
       </c>
     </row>
@@ -3590,42 +3793,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Century give wait.</t>
+          <t>Seat the show rate.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Emp_67</t>
+          <t>Emp_121</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Donna Barnes</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>29</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2024-03-16 23:57:22</t>
+          <t>2024-01-25 00:00:00 - 2024-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2024-01-28 09:39:42</t>
         </is>
       </c>
     </row>
@@ -3637,42 +3843,45 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Already food actually visit suddenly democratic.</t>
+          <t>Either full rule see box.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Emp_68</t>
+          <t>Emp_172</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Elizabeth Christian</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>31</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2024-02-10 23:39:13</t>
+          <t>2024-06-29 00:00:00 - 2024-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2024-03-14 15:51:03</t>
         </is>
       </c>
     </row>
@@ -3684,42 +3893,45 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Back financial sound it more rest ability itself.</t>
+          <t>Win benefit he environment man decade.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Emp_69</t>
+          <t>Emp_34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>John Dixon</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2024-02-01 21:23:28</t>
+          <t>2024-08-02 00:00:00 - 2024-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2024-03-17 21:35:20</t>
         </is>
       </c>
     </row>
@@ -3736,37 +3948,40 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Discussion offer major economic all.</t>
+          <t>Religious cultural rise role.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Emp_70</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Laurie Silva</t>
+          <t>Mikayla</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2024-01-31 05:05:28</t>
+          <t>2023-07-13 00:00:00 - 2023-07-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2024-01-25 14:42:34</t>
         </is>
       </c>
     </row>
@@ -3778,42 +3993,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cultural spring represent standard half newspaper common.</t>
+          <t>High note both.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Emp_71</t>
+          <t>Emp_60</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Joshua Obrien</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2024-01-12 18:56:15</t>
+          <t>2024-04-12 00:00:00 - 2024-04-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2024-03-09 06:12:30</t>
         </is>
       </c>
     </row>
@@ -3825,42 +4043,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Why beautiful soldier condition.</t>
+          <t>Score factor hospital candidate drug factor defense.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Emp_72</t>
+          <t>Emp_158</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nicholas Austin</t>
+          <t>James</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2024-01-28 18:59:01</t>
+          <t>2023-09-19 00:00:00 - 2023-09-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2024-02-15 21:19:44</t>
         </is>
       </c>
     </row>
@@ -3872,12 +4093,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Room force with board door become arm.</t>
+          <t>Activity pull everything stuff short.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3887,27 +4108,30 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Christopher Ramirez</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2021-10-24</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>24</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2024-03-08 23:31:50</t>
+          <t>2024-02-01 00:00:00 - 2024-02-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2024-01-15 08:43:51</t>
         </is>
       </c>
     </row>
@@ -3924,37 +4148,40 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Reflect oil increase enjoy explain.</t>
+          <t>Interest strong son.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emp_74</t>
+          <t>Emp_183</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Brittany Guzman</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2024-03-15 03:11:17</t>
+          <t>2023-07-19 00:00:00 - 2023-07-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2024-02-26 17:51:56</t>
         </is>
       </c>
     </row>
@@ -3971,37 +4198,40 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Interesting expert sing worry hold thing collection worry.</t>
+          <t>Ground bank owner have ago.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Emp_75</t>
+          <t>Emp_78</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Maria Mcdonald</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2024-01-23 11:19:02</t>
+          <t>2024-11-18 00:00:00 - 2024-11-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2024-03-17 11:09:15</t>
         </is>
       </c>
     </row>
@@ -4013,42 +4243,45 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Introduction to JavaScript</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Southern stop can.</t>
+          <t>Sure item stay early bill.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Emp_76</t>
+          <t>Emp_2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aaron Snyder</t>
+          <t>Autumn</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>18</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2024-03-14 12:26:33</t>
+          <t>2024-02-09 00:00:00 - 2024-02-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2024-02-07 11:52:31</t>
         </is>
       </c>
     </row>
@@ -4060,42 +4293,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Introduction to Python Programming</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Debate its for special enter similar.</t>
+          <t>Process plant tax choice sense hard.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Emp_77</t>
+          <t>Emp_194</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Monique Jensen</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>38</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2024-01-11 12:13:25</t>
+          <t>2023-06-16 00:00:00 - 2023-06-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2024-03-29 01:03:44</t>
         </is>
       </c>
     </row>
@@ -4107,42 +4343,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Radio effect after low bad meeting.</t>
+          <t>How during authority well good.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Emp_78</t>
+          <t>Emp_164</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jennifer Griffin</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2024-03-15 16:20:44</t>
+          <t>2024-03-18 00:00:00 - 2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2024-04-08 06:20:35</t>
         </is>
       </c>
     </row>
@@ -4154,42 +4393,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Blue too player subject total couple.</t>
+          <t>Glass ball hospital fear our sign.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Emp_79</t>
+          <t>Emp_176</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Stephanie Simmons</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-01-02</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2021-01-09</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>35</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2024-02-22 16:23:25</t>
+          <t>2023-09-19 00:00:00 - 2023-09-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2024-02-15 09:57:52</t>
         </is>
       </c>
     </row>
@@ -4201,42 +4443,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Use mouth out.</t>
+          <t>Let avoid to back consumer.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emp_80</t>
+          <t>Emp_134</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>April Orozco</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>39</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2024-02-27 01:36:34</t>
+          <t>2023-08-04 00:00:00 - 2023-08-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2024-01-12 01:47:47</t>
         </is>
       </c>
     </row>
@@ -4248,42 +4493,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Worry describe central relationship mind almost.</t>
+          <t>Character focus fine view office among especially senior.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Emp_81</t>
+          <t>Emp_36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bryan Stout</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>30</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2024-02-02 11:47:45</t>
+          <t>2024-12-23 00:00:00 - 2024-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2024-02-28 17:46:14</t>
         </is>
       </c>
     </row>
@@ -4295,42 +4543,45 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>House song than word weight save main near.</t>
+          <t>Wrong another center reflect figure return election.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Emp_82</t>
+          <t>Emp_122</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mackenzie Cunningham</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2024-03-12 12:54:12</t>
+          <t>2024-07-15 00:00:00 - 2024-07-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2024-01-22 20:38:33</t>
         </is>
       </c>
     </row>
@@ -4342,42 +4593,45 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Web Development Fundamentals</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>College yet teach degree not order success.</t>
+          <t>Consumer which personal yeah free me course join.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Emp_83</t>
+          <t>Emp_91</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Jon Cox</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>35</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2024-02-09 17:03:59</t>
+          <t>2024-03-25 00:00:00 - 2024-03-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2024-02-10 04:48:51</t>
         </is>
       </c>
     </row>
@@ -4389,42 +4643,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Get contain believe or short.</t>
+          <t>Maybe network suggest person cold themselves two.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Emp_84</t>
+          <t>Emp_105</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kathryn Sanchez MD</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>23</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2024-02-16 12:47:17</t>
+          <t>2024-07-01 00:00:00 - 2024-07-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2024-03-22 06:47:28</t>
         </is>
       </c>
     </row>
@@ -4436,42 +4693,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Database Management with MongoDB</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Senior TV respond degree.</t>
+          <t>Best onto road recognize.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Emp_85</t>
+          <t>Emp_128</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jeanne Melton</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>11</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2024-01-20 21:42:03</t>
+          <t>2024-08-02 00:00:00 - 2024-08-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2024-02-14 20:29:05</t>
         </is>
       </c>
     </row>
@@ -4483,42 +4743,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chair suffer ahead sound risk short low let.</t>
+          <t>Cost hot pull fill.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Emp_86</t>
+          <t>Emp_73</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Crystal Bryant</t>
+          <t>Mackenzie</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2021-08-23</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>24</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2024-03-28 11:43:41</t>
+          <t>2023-06-11 00:00:00 - 2023-06-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2024-01-14 18:40:58</t>
         </is>
       </c>
     </row>
@@ -4530,42 +4793,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Production entire collection box race style note.</t>
+          <t>Score indicate training article bar air.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Emp_87</t>
+          <t>Emp_189</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Michelle Garza</t>
+          <t>Darrell</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>20</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2024-03-10 21:01:28</t>
+          <t>2024-12-06 00:00:00 - 2024-12-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2024-03-31 12:23:53</t>
         </is>
       </c>
     </row>
@@ -4577,42 +4843,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Introduction to Python Programming</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Down type it they choose.</t>
+          <t>Turn company myself staff.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Emp_88</t>
+          <t>Emp_47</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Jay Moore</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-18</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2021-10-25</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2024-03-22 07:08:50</t>
+          <t>2023-11-22 00:00:00 - 2023-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2024-02-27 04:35:23</t>
         </is>
       </c>
     </row>
@@ -4624,42 +4893,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Right little worry pattern college two.</t>
+          <t>Woman class bit full positive throw.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Emp_89</t>
+          <t>Emp_42</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Randall Willis MD</t>
+          <t>William</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>18</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2024-03-27 06:19:54</t>
+          <t>2024-10-18 00:00:00 - 2024-10-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2024-04-08 10:59:03</t>
         </is>
       </c>
     </row>
@@ -4676,37 +4948,40 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Laugh ready suggest I go little sort.</t>
+          <t>Ground easy energy green.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Emp_90</t>
+          <t>Emp_56</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Patricia Pierce</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-04-07</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2024-01-15 02:54:42</t>
+          <t>2024-04-07 00:00:00 - 2024-04-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2024-01-23 22:46:09</t>
         </is>
       </c>
     </row>
@@ -4718,42 +4993,45 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Backend Development with Node.js</t>
+          <t>Frontend Development with React</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Language own material.</t>
+          <t>Training against visit bring.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Emp_91</t>
+          <t>Emp_9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Randy Scott</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2020-01-12</t>
+          <t>2023-09-02</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2020-01-19</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>28</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2024-02-17 21:56:43</t>
+          <t>2023-09-02 00:00:00 - 2023-09-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2024-02-14 07:01:58</t>
         </is>
       </c>
     </row>
@@ -4765,42 +5043,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Frontend Development with React</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Student outside floor play benefit hear.</t>
+          <t>Open picture trouble let pretty consider.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Emp_92</t>
+          <t>Emp_32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Austin Shaffer</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>19</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2024-02-01 12:09:21</t>
+          <t>2024-12-16 00:00:00 - 2024-12-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2024-02-16 21:32:43</t>
         </is>
       </c>
     </row>
@@ -4812,42 +5093,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Data Science Essentials</t>
+          <t>Cloud Computing Fundamentals</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Successful organization will participant treatment else example.</t>
+          <t>South general relationship rule.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Emp_93</t>
+          <t>Emp_134</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Kelly Evans</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>25</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2024-04-01 18:49:22</t>
+          <t>2024-10-13 00:00:00 - 2024-10-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2024-04-07 01:52:33</t>
         </is>
       </c>
     </row>
@@ -4859,42 +5143,45 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cloud Computing Fundamentals</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Culture garden lose exist indicate hit.</t>
+          <t>Opportunity third feel administration.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Emp_94</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adrian Marsh</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>32</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2024-01-20 22:18:03</t>
+          <t>2024-08-29 00:00:00 - 2024-09-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2024-03-17 23:45:11</t>
         </is>
       </c>
     </row>
@@ -4906,42 +5193,45 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Machine Learning Basics</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Impact will take.</t>
+          <t>Else major friend reason civil ready control.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Emp_95</t>
+          <t>Emp_188</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ariel Hall</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2021-04-04</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>30</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2024-01-29 16:11:27</t>
+          <t>2024-05-24 00:00:00 - 2024-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:27:42</t>
         </is>
       </c>
     </row>
@@ -4953,42 +5243,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Introduction to JavaScript</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Describe next remain push.</t>
+          <t>Woman enter kitchen parent city exactly race include.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Emp_96</t>
+          <t>Emp_168</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>April Spencer</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>28</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2024-01-17 17:04:56</t>
+          <t>2023-08-26 00:00:00 - 2023-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2024-01-03 02:00:34</t>
         </is>
       </c>
     </row>
@@ -5000,42 +5293,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Machine Learning Basics</t>
+          <t>Cybersecurity Essentials</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>These style community happen lawyer media green.</t>
+          <t>World note our spend put watch score nothing.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Emp_97</t>
+          <t>Emp_99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Emma Arnold</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-01-03</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2021-01-13</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>19</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2024-01-08 08:05:09</t>
+          <t>2024-02-21 00:00:00 - 2024-02-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2024-01-04 13:38:55</t>
         </is>
       </c>
     </row>
@@ -5047,42 +5343,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Web Development Fundamentals</t>
+          <t>Backend Development with Node.js</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Education mean space house morning.</t>
+          <t>Service so keep body compare piece page.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Emp_98</t>
+          <t>Emp_117</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>James Harrington</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>31</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2024-03-17 18:52:13</t>
+          <t>2023-11-15 00:00:00 - 2023-11-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2024-03-24 22:04:54</t>
         </is>
       </c>
     </row>
@@ -5094,42 +5393,45 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cybersecurity Essentials</t>
+          <t>Data Science Essentials</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>This less night hour financial west chair.</t>
+          <t>Culture inside power.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Emp_99</t>
+          <t>Emp_177</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>David Johnson</t>
+          <t>John</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2024-03-16 21:28:41</t>
+          <t>2024-02-18 00:00:00 - 2024-02-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2024-04-03 23:19:25</t>
         </is>
       </c>
     </row>
